--- a/Docs/08-Prueba/Modulo Gestión de Usuarios y Perfiles.xlsx
+++ b/Docs/08-Prueba/Modulo Gestión de Usuarios y Perfiles.xlsx
@@ -4,31 +4,28 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="345" windowWidth="18675" windowHeight="8220" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="345" windowWidth="18675" windowHeight="8220" tabRatio="802" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="US_59" sheetId="3" r:id="rId1"/>
     <sheet name="US_60" sheetId="4" r:id="rId2"/>
     <sheet name="US_61" sheetId="5" r:id="rId3"/>
     <sheet name="US_62" sheetId="6" r:id="rId4"/>
-    <sheet name="US_63" sheetId="7" r:id="rId5"/>
-    <sheet name="US_137" sheetId="8" r:id="rId6"/>
-    <sheet name="US_65" sheetId="9" r:id="rId7"/>
-    <sheet name="US_66" sheetId="10" r:id="rId8"/>
-    <sheet name="US_67" sheetId="11" r:id="rId9"/>
-    <sheet name="US_68" sheetId="12" r:id="rId10"/>
-    <sheet name="US_70" sheetId="13" r:id="rId11"/>
-    <sheet name="US_71" sheetId="14" r:id="rId12"/>
-    <sheet name="US_72" sheetId="15" r:id="rId13"/>
-    <sheet name="US_73" sheetId="16" r:id="rId14"/>
-    <sheet name="Hoja9" sheetId="17" r:id="rId15"/>
+    <sheet name="US_66" sheetId="10" r:id="rId5"/>
+    <sheet name="US_67" sheetId="11" r:id="rId6"/>
+    <sheet name="US_68" sheetId="12" r:id="rId7"/>
+    <sheet name="US_70" sheetId="13" r:id="rId8"/>
+    <sheet name="US_71" sheetId="14" r:id="rId9"/>
+    <sheet name="US_72" sheetId="15" r:id="rId10"/>
+    <sheet name="US_73" sheetId="16" r:id="rId11"/>
+    <sheet name="Hoja9" sheetId="17" r:id="rId12"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="128">
   <si>
     <t>Subject</t>
   </si>
@@ -169,6 +166,249 @@
   </si>
   <si>
     <t>El usuario no fue creado nuevamente en la BD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invocar Consulta Usuario; </t>
+  </si>
+  <si>
+    <t>Ingresa solo el filtros Tipo de usuario. Y seleccionar boton Buscar</t>
+  </si>
+  <si>
+    <t>Muestra los resultados de busqueda. Debe mostrar todos los usuarios que coincidan con el tipo de usuario(ref. lista de precondiccion).</t>
+  </si>
+  <si>
+    <t>Valida en BD si el resultado obtenido coincide con la consulta a la BD.</t>
+  </si>
+  <si>
+    <t>Si coinciden.</t>
+  </si>
+  <si>
+    <t>TC1_US62</t>
+  </si>
+  <si>
+    <t>Muestra los resultados de busqueda. Debe mostrar todos los usuarios que esten deshabilitados(ref. lista de precondiccion).</t>
+  </si>
+  <si>
+    <t>Destildar solo el filtros de Habilitacion. Y seleccionar boton Buscar</t>
+  </si>
+  <si>
+    <t>Muestra pantalla de Buscar. Permite ingresar datos: usuario,habilitado, rol.</t>
+  </si>
+  <si>
+    <t>Este TC valida la consulta por filtro de tipo de usuario. Pre condiccion: Usuarios Deshabilitados existente en BD EDUAR_aspnet_services.</t>
+  </si>
+  <si>
+    <t>Este TC valida la consulta de un usuario existente en el sistema y habilitado. Pre condiccion: datos de una persona que ya tenga nombre de usuario y este habilitado en BD EDUAR_aspnet_services.</t>
+  </si>
+  <si>
+    <t>Ingresa todos los filtros requeridos para : usuario,habilitado, rol.(referencia a pre condicion). Y seleccionar boton Buscar</t>
+  </si>
+  <si>
+    <t>Muestra los resultados de busqueda. Debe mostrar una sola persona que conicida con todos los filtros indicados.</t>
+  </si>
+  <si>
+    <t>Ingresa solo el filtros de rol. Y seleccionar boton Buscar</t>
+  </si>
+  <si>
+    <t>Muestra los resultados de busqueda. Debe mostrar todos los usuarios que coincidan con el rol ingresado(ref. lista de precondiccion).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invocar Editar Usuario; </t>
+  </si>
+  <si>
+    <t>Este TC valida que se modifique la habilitacion de un usuario existente que este deshabilitado. Pre condiccion: usuario que exista en base datos debe estar deshabilitado.</t>
+  </si>
+  <si>
+    <t>TC1_US61</t>
+  </si>
+  <si>
+    <t>TC2_US61</t>
+  </si>
+  <si>
+    <t>TC3_US61</t>
+  </si>
+  <si>
+    <t>Este TC valida la consulta de un usuario existen. Pre condiccion: Lsta de usuarios según roles existente en BD de EDUAR_aspnet_service.</t>
+  </si>
+  <si>
+    <t>TC2_US62</t>
+  </si>
+  <si>
+    <t>Ingresa nombre de usuario (Referencia a Pre condicion). Selecciona boton buscar.</t>
+  </si>
+  <si>
+    <t>Muestra los resultados de busqueda. Debe mostrar el registro que pertenece a el usuario ingresado y la diponibilidad para editar ese redistro.</t>
+  </si>
+  <si>
+    <t>seleccionar boton editar en las acciones permitidas al usuario.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muestra pantalla modificar usuario en su rol o habilitacion. </t>
+  </si>
+  <si>
+    <t>Tilda la opcion de Habilitacion de usuario. Y selecciona boton Guardar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muestra mensaje confirmacion de guardar cambios. </t>
+  </si>
+  <si>
+    <t>Confirma guardar cambios</t>
+  </si>
+  <si>
+    <t>muestra mensaje los cambios se guardaron con éxito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar en BD que el usuario se encuentr habilitado. </t>
+  </si>
+  <si>
+    <t>El cambio fue realizado con éxito en la BD.</t>
+  </si>
+  <si>
+    <t>Este TC valida que se modifique el rol a rol de Docente en un usuario. Pre condiccion: usuario que exista en base datos debe tener un rol asignado que no sea Docente.</t>
+  </si>
+  <si>
+    <t>Seleccionar nuevo rol de usuario. Y selecciona boton Guardar.</t>
+  </si>
+  <si>
+    <t>Validar en BD que el usuario tenga asignado el rol Docente.</t>
+  </si>
+  <si>
+    <t>TC1_US66</t>
+  </si>
+  <si>
+    <t>TC1_US67</t>
+  </si>
+  <si>
+    <t>Muestra pantalla de Modificar contraseña. Permite ingresar los datos de Contraseña anterio, Nueva contraseña y Confirmar la nueva contraeña.</t>
+  </si>
+  <si>
+    <t>Invocar Cambiar contraseña.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este TC se valida que el usuario pueda modificar su contraseña correctamente(validad contraseña alfanumerica  y minima longitus de 5. a ls 5 intentos se bloquea la cuenta). Precondiccion : nombre de usuario y contraseña actual. El usuario debe estar logueado en Eduar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muestra mensaje mensaje la contraseña se ha cambiado con éxito.  </t>
+  </si>
+  <si>
+    <t>Cerrar sesion y volver a iniciar sesion con la nueva contraseña.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el usuario ingresa correctamente con la nueva contraseña. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este TC se valida que el no le permita cambiar contraseña si la contraseña no cumple con la regla de US66. Pre condiccion: nombre de usuario y contraseña actual. El usuario debe estar logueado en Eduar. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingresar los datos de cambio de contraseña requeridos (referencia a regla de User Storie 66; la nueva contraseña debe cumplir con la regla). Selecciona boton cambiar contraseña. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingresar los datos de cambio de contraseña requeridos; a nueva contraseña no cumple con las reglas de US66 (referencia a regla de User Storie 66). Selecciona boton cambiar contraseña. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muestra mensaje de "Contraseña incorrecta o nueva contraseña no válida. Longitud mínima de la nueva contraseña: 5. " y borra todos los campos. </t>
+  </si>
+  <si>
+    <t>validar en base da datos que no se realice ningun cambio en la BD de EDUAR_aspnet_services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se realiza ningun cambio en BD. </t>
+  </si>
+  <si>
+    <t>TC2_US66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muestra pantalla Olvide mi Contraseña. Permite ingresar el e-mail. </t>
+  </si>
+  <si>
+    <t>El usuario ingresa el email correspondiente al usuario(ref. a precondiccion). Selecciona el boton de enviar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muestra mensaje invitando a consultar en la bandeja de entrada del correo ingresado. </t>
+  </si>
+  <si>
+    <t>En este TC se valida que no permita enviar correo a e-mail que no esten registrados. Pre condicion: correo de una casilla de email disponible, no registrado en Eduar.</t>
+  </si>
+  <si>
+    <t>Chequear en el correo personal y acceder la link que contiene el correo.</t>
+  </si>
+  <si>
+    <t>Muestra una pantalla para la Nueva clave de acceso. Contiene la pregunta secreta.</t>
+  </si>
+  <si>
+    <t>TC2_US67</t>
+  </si>
+  <si>
+    <t>Invocar olvido de contraseña</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingresa la respuesta a la pregunta secreta. Enviar respuesta. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostrar pantalla de nueva clave de acceso. Permite ingresar nueva clave de acceso. </t>
+  </si>
+  <si>
+    <t>En este TC se valida que el usuario pueda obtener la contraseña nueva con éxito. Cambio de contra. Pre condicion: un usuario habilitado, correo disponible del usuario. Respuesta de la pregunta Secreta, la nueva contraseña debe cumplir con regla descripta en US66.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingresar nueva clave de acceso y confirmar clave(referencia a reglas de US66); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muestra mensaje de cambio de contraseña correcto. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar nueva contraseña; igresar nombre de usuario y nueva contraseña. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sesion iniciada corrcetamente. </t>
+  </si>
+  <si>
+    <t>TC3_US67</t>
+  </si>
+  <si>
+    <t>Muestra un mensaje de email no registrado, vuelva a intentar.</t>
+  </si>
+  <si>
+    <t>TC1_US68</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Invocar Login de usuario</t>
+  </si>
+  <si>
+    <t>En este TC se valida que un usuario ingresa a su sesion correctamente. Pre condiccion: El usuario existe en BD; contar con la contraseña</t>
+  </si>
+  <si>
+    <t>En este TC se valida muestre mensaje de error por contraseña incorrecta. Pre condiccion: El usuario existe en BD; contraseña no correcta</t>
+  </si>
+  <si>
+    <t>TC2_US68</t>
+  </si>
+  <si>
+    <t>Ingresa nombre de usuario y contraseña. (Referencia a precondiccion). Seleccionar boton de Iniciar Sesion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muestra pantalla de Inicio de sesion. </t>
+  </si>
+  <si>
+    <t>Ingresa sesion al sistema correctamente. Muetra la sesion abierta del usuario.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muestra mensaje de error contraseña invalida. </t>
+  </si>
+  <si>
+    <t>TC1_US70</t>
+  </si>
+  <si>
+    <t>En este TC se valida que el usuario pueda cerrar sesion correctamente. Pre condicicon: el usuario debe estar logueado en el sistema.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invocar cerrar sesion . </t>
+  </si>
+  <si>
+    <t>cierra la sesion. Muestra en pantalla la pagina publica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar sesion cerrada; ingrsando a URL usada. </t>
   </si>
 </sst>
 </file>
@@ -241,7 +481,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,6 +521,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="60"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,7 +693,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -497,6 +743,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -562,6 +823,51 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -870,7 +1176,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -881,20 +1187,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="26"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -974,13 +1280,13 @@
     </row>
     <row r="4" spans="1:12" ht="42.75" customHeight="1" thickBot="1">
       <c r="A4" s="10"/>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="38" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="11">
@@ -1000,9 +1306,9 @@
     </row>
     <row r="5" spans="1:12" ht="32.25" thickBot="1">
       <c r="A5" s="13"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="34"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="11">
         <v>2</v>
       </c>
@@ -1020,9 +1326,9 @@
     </row>
     <row r="6" spans="1:12" ht="21.75" thickBot="1">
       <c r="A6" s="13"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="34"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="11">
         <v>3</v>
       </c>
@@ -1040,9 +1346,9 @@
     </row>
     <row r="7" spans="1:12" ht="42.75" thickBot="1">
       <c r="A7" s="13"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="35"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="40"/>
       <c r="E7" s="11">
         <v>3</v>
       </c>
@@ -1075,8 +1381,8 @@
     <row r="9" spans="1:12" ht="15.75" thickBot="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="19"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="24"/>
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -1089,8 +1395,8 @@
     <row r="10" spans="1:12" ht="15.75" thickBot="1">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="20"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="11"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -1103,8 +1409,8 @@
     <row r="11" spans="1:12" ht="15.75" thickBot="1">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="23"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="11"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -1131,8 +1437,8 @@
     <row r="13" spans="1:12" ht="15.75" thickBot="1">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="19"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="11"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -1145,8 +1451,8 @@
     <row r="14" spans="1:12" ht="15.75" thickBot="1">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="20"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="25"/>
       <c r="E14" s="11"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -1159,8 +1465,8 @@
     <row r="15" spans="1:12" ht="15.75" thickBot="1">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="23"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="11"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -1187,8 +1493,8 @@
     <row r="17" spans="1:12" ht="15.75" thickBot="1">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="19"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="11"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -1201,8 +1507,8 @@
     <row r="18" spans="1:12" ht="15.75" thickBot="1">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="20"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="11"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
@@ -1229,8 +1535,8 @@
     <row r="20" spans="1:12" ht="15.75" thickBot="1">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="19"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="11"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -1243,8 +1549,8 @@
     <row r="21" spans="1:12" ht="15.75" thickBot="1">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="20"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="11"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
@@ -1271,8 +1577,8 @@
     <row r="23" spans="1:12" ht="15.75" thickBot="1">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="19"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="11"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
@@ -1285,8 +1591,8 @@
     <row r="24" spans="1:12" ht="15.75" thickBot="1">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="20"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="11"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
@@ -1299,8 +1605,8 @@
     <row r="25" spans="1:12" ht="15.75" thickBot="1">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="23"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="28"/>
       <c r="E25" s="11"/>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
@@ -1336,24 +1642,504 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:L10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A1" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="31"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="21.75" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="105.75" thickBot="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" spans="1:12" ht="158.25" thickBot="1">
+      <c r="A5" s="13"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11">
+        <v>2</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="1:12" ht="74.25" thickBot="1">
+      <c r="A6" s="13"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11">
+        <v>3</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" ht="105.75" thickBot="1">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11">
+        <v>1</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="1:12" ht="158.25" thickBot="1">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11">
+        <v>2</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" spans="1:12" ht="74.25" thickBot="1">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11">
+        <v>3</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A1" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="31"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="21.75" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="105.75" thickBot="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" spans="1:12" ht="158.25" thickBot="1">
+      <c r="A5" s="13"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11">
+        <v>2</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="1:12" ht="74.25" thickBot="1">
+      <c r="A6" s="13"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11">
+        <v>3</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" ht="105.75" thickBot="1">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11">
+        <v>1</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="1:12" ht="158.25" thickBot="1">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11">
+        <v>2</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" spans="1:12" ht="74.25" thickBot="1">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11">
+        <v>3</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1370,48 +2156,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:F12"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1422,20 +2172,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="26"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -1518,10 +2268,10 @@
       <c r="B4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="38" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="11">
@@ -1542,8 +2292,8 @@
     <row r="5" spans="1:12" ht="63.75" thickBot="1">
       <c r="A5" s="13"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="34"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="11">
         <v>2</v>
       </c>
@@ -1562,8 +2312,8 @@
     <row r="6" spans="1:12" ht="95.25" thickBot="1">
       <c r="A6" s="13"/>
       <c r="B6" s="11"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="34"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="11">
         <v>3</v>
       </c>
@@ -1582,8 +2332,8 @@
     <row r="7" spans="1:12" ht="32.25" thickBot="1">
       <c r="A7" s="13"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="34"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="11">
         <v>4</v>
       </c>
@@ -1602,8 +2352,8 @@
     <row r="8" spans="1:12" ht="42.75" thickBot="1">
       <c r="A8" s="13"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="35"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="11">
         <v>5</v>
       </c>
@@ -1636,10 +2386,10 @@
     <row r="10" spans="1:12" ht="37.5" customHeight="1" thickBot="1">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="38" t="s">
         <v>43</v>
       </c>
       <c r="E10" s="11">
@@ -1660,8 +2410,8 @@
     <row r="11" spans="1:12" ht="63.75" customHeight="1" thickBot="1">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="34"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="11">
         <v>2</v>
       </c>
@@ -1680,8 +2430,8 @@
     <row r="12" spans="1:12" ht="69" customHeight="1" thickBot="1">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="34"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="11">
         <v>3</v>
       </c>
@@ -1700,8 +2450,8 @@
     <row r="13" spans="1:12" ht="52.5" customHeight="1" thickBot="1">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="34"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="11">
         <v>4</v>
       </c>
@@ -1720,8 +2470,8 @@
     <row r="14" spans="1:12" ht="60" customHeight="1" thickBot="1">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="35"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="40"/>
       <c r="E14" s="11"/>
       <c r="F14" s="12" t="s">
         <v>45</v>
@@ -1752,8 +2502,8 @@
     <row r="16" spans="1:12" ht="15.75" thickBot="1">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="19"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="11"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -1766,8 +2516,8 @@
     <row r="17" spans="1:12" ht="15.75" thickBot="1">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="20"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="11"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -1780,8 +2530,8 @@
     <row r="18" spans="1:12" ht="15.75" thickBot="1">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="23"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="28"/>
       <c r="E18" s="11"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
@@ -1808,8 +2558,8 @@
     <row r="20" spans="1:12" ht="15.75" thickBot="1">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="19"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="11"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -1822,8 +2572,8 @@
     <row r="21" spans="1:12" ht="15.75" thickBot="1">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="20"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="11"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
@@ -1850,8 +2600,8 @@
     <row r="23" spans="1:12" ht="15.75" thickBot="1">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="19"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="11"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
@@ -1864,8 +2614,8 @@
     <row r="24" spans="1:12" ht="15.75" thickBot="1">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="20"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="11"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
@@ -1892,8 +2642,8 @@
     <row r="26" spans="1:12" ht="15.75" thickBot="1">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="19"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="11"/>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
@@ -1906,8 +2656,8 @@
     <row r="27" spans="1:12" ht="15.75" thickBot="1">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="20"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="25"/>
       <c r="E27" s="11"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
@@ -1920,8 +2670,8 @@
     <row r="28" spans="1:12" ht="15.75" thickBot="1">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="23"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="28"/>
       <c r="E28" s="11"/>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
@@ -1958,27 +2708,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="C8" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" customWidth="1"/>
+    <col min="7" max="7" width="35" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="26"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -2056,31 +2812,47 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1">
+    <row r="4" spans="1:12" ht="84.75" thickBot="1">
       <c r="A4" s="10"/>
       <c r="B4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="11"/>
+      <c r="C4" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="12"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1">
+    <row r="5" spans="1:12" ht="53.25" thickBot="1">
       <c r="A5" s="13"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="28"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="15"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="11"/>
+      <c r="E5" s="11">
+        <v>2</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="12"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
@@ -2089,7 +2861,7 @@
     <row r="6" spans="1:12" ht="15.75" thickBot="1">
       <c r="A6" s="13"/>
       <c r="B6" s="11"/>
-      <c r="C6" s="29"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="16"/>
       <c r="E6" s="11"/>
       <c r="F6" s="12"/>
@@ -2114,49 +2886,71 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1">
+    <row r="8" spans="1:12" ht="116.25" customHeight="1" thickBot="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="C8" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1">
+    <row r="9" spans="1:12" ht="42.75" thickBot="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="11">
+        <v>2</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>61</v>
+      </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1">
+    <row r="10" spans="1:12" ht="32.25" thickBot="1">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="11">
+        <v>3</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1">
+    <row r="11" spans="1:12" ht="9.75" customHeight="1" thickBot="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2170,42 +2964,64 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1">
+    <row r="12" spans="1:12" ht="21.75" thickBot="1">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="C12" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="11">
+        <v>1</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1">
+    <row r="13" spans="1:12" ht="42.75" thickBot="1">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="11">
+        <v>2</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1">
+    <row r="14" spans="1:12" ht="32.25" thickBot="1">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="11">
+        <v>3</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
@@ -2229,8 +3045,8 @@
     <row r="16" spans="1:12" ht="15.75" thickBot="1">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="19"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="11"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -2243,8 +3059,8 @@
     <row r="17" spans="1:12" ht="15.75" thickBot="1">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="20"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="11"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -2271,8 +3087,8 @@
     <row r="19" spans="1:12" ht="15.75" thickBot="1">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="19"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="11"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -2285,8 +3101,8 @@
     <row r="20" spans="1:12" ht="15.75" thickBot="1">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="20"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="11"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -2313,8 +3129,8 @@
     <row r="22" spans="1:12" ht="15.75" thickBot="1">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="19"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="11"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
@@ -2327,8 +3143,8 @@
     <row r="23" spans="1:12" ht="15.75" thickBot="1">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="20"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="11"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
@@ -2341,8 +3157,8 @@
     <row r="24" spans="1:12" ht="15.75" thickBot="1">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="28"/>
       <c r="E24" s="11"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
@@ -2376,29 +3192,34 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="30.28515625" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="40.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="26"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -2476,45 +3297,659 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1">
+    <row r="4" spans="1:12" ht="62.25" customHeight="1" thickBot="1">
       <c r="A4" s="10"/>
       <c r="B4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
+      <c r="C4" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1">
+    <row r="5" spans="1:12" ht="71.25" customHeight="1" thickBot="1">
       <c r="A5" s="13"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="11">
+        <v>2</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>70</v>
+      </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1">
+    <row r="6" spans="1:12" ht="71.25" customHeight="1" thickBot="1">
       <c r="A6" s="13"/>
       <c r="B6" s="11"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="11">
+        <v>3</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>72</v>
+      </c>
       <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="1:12" ht="33.75" customHeight="1" thickBot="1">
+      <c r="A7" s="13"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="11">
+        <v>4</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:12" ht="33.75" customHeight="1" thickBot="1">
+      <c r="A8" s="13"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="11">
+        <v>5</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="1:12" ht="32.25" thickBot="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="11">
+        <v>6</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" ht="21.75" thickBot="1">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="1:12" ht="42.75" thickBot="1">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="11">
+        <v>2</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="1:12" ht="32.25" thickBot="1">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="11">
+        <v>3</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="1:12" ht="32.25" thickBot="1">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="11">
+        <v>4</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="1:12" ht="21.75" thickBot="1">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="11">
+        <v>5</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+    </row>
+    <row r="16" spans="1:12" ht="32.25" thickBot="1">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="11">
+        <v>6</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="D4:D9"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A1" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="31"/>
+    </row>
+    <row r="2" spans="1:12" ht="18.75" thickBot="1">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="21.75" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="66" customHeight="1" thickBot="1">
+      <c r="A4" s="47"/>
+      <c r="B4" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" spans="1:12" ht="137.25" thickBot="1">
+      <c r="A5" s="48"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="11">
+        <v>2</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="1:12" ht="107.25" customHeight="1" thickBot="1">
+      <c r="A6" s="49"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="11">
+        <v>3</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="12"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
@@ -2534,43 +3969,330 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1">
+    <row r="8" spans="1:12" ht="54.75" thickBot="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="11"/>
+      <c r="C8" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="12"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1">
+    <row r="9" spans="1:12" ht="137.25" thickBot="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="11"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="11">
+        <v>2</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="12"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1">
+    <row r="10" spans="1:12" ht="112.5" customHeight="1" thickBot="1">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="11"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="11">
+        <v>3</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="D4:D6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="29.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" customWidth="1"/>
+    <col min="6" max="6" width="30.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A1" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="31"/>
+    </row>
+    <row r="2" spans="1:12" ht="18.75" thickBot="1">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="21.75" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="32.25" thickBot="1">
+      <c r="A4" s="47"/>
+      <c r="B4" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" spans="1:12" ht="42.75" thickBot="1">
+      <c r="A5" s="48"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="11">
+        <v>2</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="1:12" ht="42.75" thickBot="1">
+      <c r="A6" s="48"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="11">
+        <v>3</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="1:12" ht="42.75" thickBot="1">
+      <c r="A7" s="48"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="11">
+        <v>4</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:12" ht="32.25" thickBot="1">
+      <c r="A8" s="48"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="11">
+        <v>5</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="1:12" ht="32.25" thickBot="1">
+      <c r="A9" s="48"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="11">
+        <v>6</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A10" s="49"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="11"/>
+      <c r="H10" s="12"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
@@ -2590,29 +4312,45 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1">
+    <row r="12" spans="1:12" ht="32.25" thickBot="1">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="11"/>
+      <c r="C12" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="11">
+        <v>1</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" s="12"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1">
+    <row r="13" spans="1:12" ht="42.75" thickBot="1">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="11"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="11">
+        <v>2</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" s="12"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
@@ -2621,12 +4359,12 @@
     <row r="14" spans="1:12" ht="15.75" thickBot="1">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="23"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
+      <c r="F14" s="11"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="11"/>
+      <c r="H14" s="12"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
@@ -2649,12 +4387,14 @@
     <row r="16" spans="1:12" ht="15.75" thickBot="1">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="19"/>
+      <c r="C16" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="41"/>
       <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
@@ -2663,129 +4403,158 @@
     <row r="17" spans="1:12" ht="15.75" thickBot="1">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="20"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="42"/>
       <c r="E17" s="11"/>
-      <c r="F17" s="12"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="11"/>
+      <c r="H17" s="12"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
     </row>
     <row r="19" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" thickBot="1">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="20"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="41"/>
       <c r="E20" s="11"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="19"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="43"/>
       <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
+      <c r="F22" s="11"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="11"/>
+      <c r="H22" s="12"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
     </row>
     <row r="23" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
     </row>
     <row r="24" spans="1:12" ht="15.75" thickBot="1">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="41"/>
       <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12"/>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
     </row>
+    <row r="25" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C4:C10"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="D12:D14"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="D4:D10"/>
+    <mergeCell ref="A4:A10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -2794,31 +4563,36 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="26"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -2896,31 +4670,47 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1">
+    <row r="4" spans="1:12" ht="21.75" thickBot="1">
       <c r="A4" s="10"/>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="11"/>
+      <c r="C4" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="H4" s="12"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1">
+    <row r="5" spans="1:12" ht="63.75" thickBot="1">
       <c r="A5" s="13"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="11"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="11">
+        <v>2</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" s="12"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
@@ -2928,13 +4718,296 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1">
       <c r="A6" s="13"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="16"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="11">
+        <v>3</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A7" s="13"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A8" s="13"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" ht="21.75" thickBot="1">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="11">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="1:12" ht="63.75" thickBot="1">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="1:12" ht="56.25" customHeight="1" thickBot="1">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="D4:D8"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A1" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="31"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="21.75" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="63.75" thickBot="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" spans="1:12" ht="21.75" thickBot="1">
+      <c r="A5" s="13"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="11">
+        <v>2</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="1:12" ht="69.75" customHeight="1" thickBot="1">
+      <c r="A6" s="13"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
+      <c r="F6" s="11"/>
       <c r="G6" s="12"/>
-      <c r="H6" s="11"/>
+      <c r="H6" s="12"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
@@ -2957,12 +5030,12 @@
     <row r="8" spans="1:12" ht="15.75" thickBot="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="19"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
@@ -2971,241 +5044,213 @@
     <row r="9" spans="1:12" ht="15.75" thickBot="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="20"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
+      <c r="F9" s="11"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="11"/>
+      <c r="H9" s="12"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
+    <row r="10" spans="1:12">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="55"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="55"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="55"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="55"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="55"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="55"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="55"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="55"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="55"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="C4:C6"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="D8:D10"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="B4:B6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -3214,31 +5259,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection sqref="A1:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="26"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -3316,45 +5361,63 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1">
+    <row r="4" spans="1:12" ht="105.75" thickBot="1">
       <c r="A4" s="10"/>
       <c r="B4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="14"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="11"/>
+      <c r="F4" s="11">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1">
+    <row r="5" spans="1:12" ht="158.25" thickBot="1">
       <c r="A5" s="13"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="15"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="11"/>
+      <c r="F5" s="11">
+        <v>2</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1">
+    <row r="6" spans="1:12" ht="74.25" thickBot="1">
       <c r="A6" s="13"/>
       <c r="B6" s="11"/>
-      <c r="C6" s="29"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="16"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="11"/>
+      <c r="F6" s="11">
+        <v>3</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
@@ -3374,43 +5437,61 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1">
+    <row r="8" spans="1:12" ht="105.75" thickBot="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="19"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="11"/>
+      <c r="F8" s="11">
+        <v>1</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1">
+    <row r="9" spans="1:12" ht="158.25" thickBot="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="20"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="11"/>
+      <c r="F9" s="11">
+        <v>2</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1">
+    <row r="10" spans="1:12" ht="74.25" thickBot="1">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="23"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="28"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="11"/>
+      <c r="F10" s="11">
+        <v>3</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
@@ -3428,40 +5509,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>